--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -685,10 +709,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -732,28 +756,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="3">
+      <c r="C21" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -778,28 +802,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="3">
+      <c r="I23" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1119,10 +1143,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1166,28 +1190,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1212,28 +1236,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1292,10 +1316,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="3" t="s">
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1339,28 +1363,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="3">
+      <c r="A42" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="3">
+      <c r="C42" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1385,28 +1409,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="3">
+      <c r="C44" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="3">
+      <c r="D44" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="3">
+      <c r="I44" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1668,10 +1692,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="3" t="s">
+      <c r="J53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1715,28 +1739,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="A55" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="3">
+      <c r="C55" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1761,28 +1785,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="3">
+      <c r="I57" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1841,10 +1865,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="J59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1888,28 +1912,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="3">
+      <c r="C61" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1934,28 +1958,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2014,10 +2038,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2061,28 +2085,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="3">
+      <c r="C67" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2107,28 +2131,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2187,10 +2211,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2234,28 +2258,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2280,28 +2304,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2360,10 +2384,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="J77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2407,28 +2431,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="C79" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2453,28 +2477,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2533,10 +2557,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2580,28 +2604,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2626,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2706,10 +2730,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2753,28 +2777,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="3">
+      <c r="C91" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2799,28 +2823,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2879,10 +2903,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="3" t="s">
+      <c r="J95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2926,28 +2950,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="3">
+      <c r="A97" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="3">
+      <c r="C97" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2972,28 +2996,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="3">
+      <c r="I99" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3052,10 +3076,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="J101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3099,28 +3123,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="3">
+      <c r="C103" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3145,28 +3169,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="3">
+      <c r="I105" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3225,10 +3249,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3272,28 +3296,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3318,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3422,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3445,28 +3469,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3491,28 +3515,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3571,10 +3595,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="J119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3618,28 +3642,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="A121" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="3">
+      <c r="C121" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3664,28 +3688,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="3">
+      <c r="I123" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3768,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="3" t="s">
+      <c r="J125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3815,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="3">
+      <c r="C127" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3861,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3917,10 +3941,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3964,28 +3988,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4010,28 +4034,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4090,10 +4114,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4137,28 +4161,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4183,28 +4207,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4287,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4310,28 +4334,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4356,28 +4380,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4436,10 +4460,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4483,28 +4507,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4529,28 +4553,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4609,10 +4633,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4656,28 +4680,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4702,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4782,10 +4806,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="3" t="s">
+      <c r="J161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4829,28 +4853,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="3">
+      <c r="A163" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="3">
+      <c r="C163" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4875,28 +4899,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="3">
+      <c r="C165" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="3">
+      <c r="D165" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="3">
+      <c r="I165" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4955,10 +4979,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3" t="s">
+      <c r="J167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5002,28 +5026,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="3">
+      <c r="C169" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5048,28 +5072,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5128,10 +5152,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="3" t="s">
+      <c r="J173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5175,28 +5199,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="3">
+      <c r="A175" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="3">
+      <c r="C175" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5221,28 +5245,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="3">
+      <c r="I177" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5301,10 +5325,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3" t="s">
+      <c r="J179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5348,28 +5372,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="3">
+      <c r="A181" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="3">
+      <c r="C181" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5394,28 +5418,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="3">
+      <c r="C183" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="3">
+      <c r="D183" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="3">
+      <c r="I183" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5498,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="J185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5545,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="3">
+      <c r="A187" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="3">
+      <c r="C187" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5591,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="3">
+      <c r="C189" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="3">
+      <c r="D189" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="3">
+      <c r="I189" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5671,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="3" t="s">
+      <c r="J191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5718,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="3">
+      <c r="A193" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="3">
+      <c r="C193" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5764,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="3">
+      <c r="C195" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="3">
+      <c r="D195" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="3">
+      <c r="I195" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5965,10 +5989,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="3" t="s">
+      <c r="J202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6012,28 +6036,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="3">
+      <c r="A204" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="3">
+      <c r="C204" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6058,28 +6082,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="3">
+      <c r="B206" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="3">
+      <c r="C206" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="3">
+      <c r="D206" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="3">
+      <c r="E206" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="3">
+      <c r="F206" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="3">
+      <c r="G206" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="3">
+      <c r="H206" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="3">
+      <c r="I206" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6138,10 +6162,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="3" t="s">
+      <c r="J208" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6185,28 +6209,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="3">
+      <c r="A210" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="3">
+      <c r="C210" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6231,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="3">
+      <c r="C212" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="3">
+      <c r="D212" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="3">
+      <c r="I212" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6311,10 +6335,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6358,28 +6382,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6404,28 +6428,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6484,10 +6508,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="3" t="s">
+      <c r="J220" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6531,28 +6555,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="3">
+      <c r="A222" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="3">
+      <c r="C222" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6577,28 +6601,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="3">
+      <c r="C224" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="3">
+      <c r="D224" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="3">
+      <c r="I224" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6657,10 +6681,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6704,28 +6728,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6750,28 +6774,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6830,10 +6854,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6877,28 +6901,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6923,28 +6947,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7003,10 +7027,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="3" t="s">
+      <c r="J238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7050,28 +7074,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="3">
+      <c r="A240" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="3">
+      <c r="C240" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7096,28 +7120,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="3">
+      <c r="C242" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="3">
+      <c r="D242" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="3">
+      <c r="I242" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7176,10 +7200,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="3" t="s">
+      <c r="J244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7223,28 +7247,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="3">
+      <c r="A246" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="3">
+      <c r="C246" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7269,28 +7293,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="3">
+      <c r="C248" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="3">
+      <c r="D248" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="3">
+      <c r="I248" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7349,10 +7373,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="3" t="s">
+      <c r="J250" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7396,28 +7420,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="3">
+      <c r="A252" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="3">
+      <c r="B252" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="3">
+      <c r="C252" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="3">
+      <c r="E252" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="3">
+      <c r="F252" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="3">
+      <c r="G252" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="3">
+      <c r="H252" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7442,28 +7466,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="3">
+      <c r="C254" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="3">
+      <c r="D254" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="3">
+      <c r="I254" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7522,10 +7546,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="3" t="s">
+      <c r="J256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7569,28 +7593,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="3">
+      <c r="A258" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="3">
+      <c r="C258" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7615,28 +7639,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="3">
+      <c r="C260" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="3">
+      <c r="D260" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="3">
+      <c r="I260" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7695,10 +7719,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="3" t="s">
+      <c r="J262" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7742,28 +7766,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="3">
+      <c r="A264" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="3">
+      <c r="B264" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="3">
+      <c r="C264" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="3">
+      <c r="E264" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="3">
+      <c r="F264" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="3">
+      <c r="G264" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="3">
+      <c r="H264" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7788,28 +7812,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="3">
+      <c r="C266" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="3">
+      <c r="D266" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="3">
+      <c r="I266" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7868,10 +7892,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7915,28 +7939,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7961,28 +7985,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8331,10 +8355,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="3" t="s">
+      <c r="J284" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8378,28 +8402,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="3">
+      <c r="A286" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="3">
+      <c r="C286" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8424,28 +8448,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="3">
+      <c r="B288" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="3">
+      <c r="C288" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="3">
+      <c r="D288" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="3">
+      <c r="E288" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="3">
+      <c r="F288" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="3">
+      <c r="G288" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="3">
+      <c r="H288" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="3">
+      <c r="I288" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8504,10 +8528,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="3" t="s">
+      <c r="J290" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8551,28 +8575,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="3">
+      <c r="A292" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="3">
+      <c r="B292" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="3">
+      <c r="C292" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="3">
+      <c r="E292" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="3">
+      <c r="F292" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="3">
+      <c r="G292" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="3">
+      <c r="H292" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8597,28 +8621,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="3">
+      <c r="B294" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="3">
+      <c r="C294" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="3">
+      <c r="D294" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="3">
+      <c r="E294" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="3">
+      <c r="F294" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="3">
+      <c r="G294" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="3">
+      <c r="H294" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="3">
+      <c r="I294" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8677,10 +8701,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="3" t="s">
+      <c r="J296" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8724,28 +8748,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="3">
+      <c r="A298" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="3">
+      <c r="B298" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="3">
+      <c r="C298" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="3">
+      <c r="E298" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="3">
+      <c r="F298" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="3">
+      <c r="G298" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="3">
+      <c r="H298" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8770,28 +8794,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="3">
+      <c r="C300" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="3">
+      <c r="D300" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="3">
+      <c r="I300" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8850,10 +8874,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="3" t="s">
+      <c r="J302" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8897,28 +8921,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="3">
+      <c r="A304" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="3">
+      <c r="B304" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="3">
+      <c r="C304" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="3">
+      <c r="E304" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="3">
+      <c r="F304" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="3">
+      <c r="G304" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="3">
+      <c r="H304" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8943,28 +8967,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="3">
+      <c r="B306" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="3">
+      <c r="C306" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="3">
+      <c r="D306" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="3">
+      <c r="E306" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="3">
+      <c r="F306" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="3">
+      <c r="G306" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="3">
+      <c r="H306" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="3">
+      <c r="I306" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9023,10 +9047,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="3" t="s">
+      <c r="J308" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9070,28 +9094,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="3">
+      <c r="A310" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="3">
+      <c r="B310" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="3">
+      <c r="C310" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="3">
+      <c r="E310" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="3">
+      <c r="F310" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="3">
+      <c r="G310" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="3">
+      <c r="H310" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9116,28 +9140,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="3">
+      <c r="C312" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="3">
+      <c r="D312" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="3">
+      <c r="I312" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9196,10 +9220,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="3" t="s">
+      <c r="J314" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9243,28 +9267,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="3">
+      <c r="A316" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="3">
+      <c r="B316" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="3">
+      <c r="C316" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="3">
+      <c r="E316" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="3">
+      <c r="F316" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="3">
+      <c r="G316" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="3">
+      <c r="H316" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9289,28 +9313,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="3">
+      <c r="B318" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="3">
+      <c r="C318" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="3">
+      <c r="D318" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="3">
+      <c r="E318" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="3">
+      <c r="F318" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="3">
+      <c r="G318" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="3">
+      <c r="H318" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="3">
+      <c r="I318" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9369,10 +9393,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="3" t="s">
+      <c r="J320" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9416,28 +9440,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="3">
+      <c r="A322" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="3">
+      <c r="B322" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="3">
+      <c r="C322" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="3">
+      <c r="E322" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="3">
+      <c r="F322" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="3">
+      <c r="G322" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="3">
+      <c r="H322" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9462,28 +9486,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="3">
+      <c r="B324" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="3">
+      <c r="C324" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="3">
+      <c r="D324" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="3">
+      <c r="E324" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="3">
+      <c r="F324" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="3">
+      <c r="G324" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="3">
+      <c r="H324" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="3">
+      <c r="I324" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9542,10 +9566,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="3" t="s">
+      <c r="J326" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9589,28 +9613,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="3">
+      <c r="A328" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="3">
+      <c r="B328" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="3">
+      <c r="C328" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="3">
+      <c r="E328" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="3">
+      <c r="F328" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="3">
+      <c r="G328" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="3">
+      <c r="H328" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9635,28 +9659,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="3">
+      <c r="B330" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="3">
+      <c r="C330" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="3">
+      <c r="D330" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="3">
+      <c r="E330" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="3">
+      <c r="F330" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="3">
+      <c r="G330" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="3">
+      <c r="H330" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="3">
+      <c r="I330" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9715,10 +9739,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="3" t="s">
+      <c r="J332" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9762,28 +9786,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="3">
+      <c r="A334" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="3">
+      <c r="B334" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="3">
+      <c r="C334" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="3">
+      <c r="E334" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="3">
+      <c r="F334" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="3">
+      <c r="G334" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="3">
+      <c r="H334" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9808,28 +9832,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="3">
+      <c r="B336" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="3">
+      <c r="C336" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="3">
+      <c r="D336" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="3">
+      <c r="E336" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="3">
+      <c r="F336" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="3">
+      <c r="G336" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="3">
+      <c r="H336" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="3">
+      <c r="I336" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9888,10 +9912,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="3" t="s">
+      <c r="J338" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9935,28 +9959,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="3">
+      <c r="A340" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="3">
+      <c r="B340" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="3">
+      <c r="C340" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="3">
+      <c r="E340" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="3">
+      <c r="F340" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="3">
+      <c r="G340" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="3">
+      <c r="H340" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9981,28 +10005,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="3">
+      <c r="B342" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="3">
+      <c r="C342" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="3">
+      <c r="D342" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="3">
+      <c r="E342" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="3">
+      <c r="F342" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="3">
+      <c r="G342" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="3">
+      <c r="H342" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="3">
+      <c r="I342" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10061,10 +10085,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="3" t="s">
+      <c r="J344" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10108,28 +10132,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="3">
+      <c r="A346" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="3">
+      <c r="B346" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="3">
+      <c r="C346" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="3">
+      <c r="E346" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="3">
+      <c r="F346" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="3">
+      <c r="G346" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="3">
+      <c r="H346" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10154,28 +10178,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="3">
+      <c r="B348" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="3">
+      <c r="C348" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="3">
+      <c r="D348" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="3">
+      <c r="E348" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="3">
+      <c r="F348" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="3">
+      <c r="G348" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="3">
+      <c r="H348" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="3">
+      <c r="I348" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10234,10 +10258,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="3" t="s">
+      <c r="J350" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10281,28 +10305,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="3">
+      <c r="A352" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="3">
+      <c r="B352" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="3">
+      <c r="C352" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="3">
+      <c r="E352" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="3">
+      <c r="F352" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="3">
+      <c r="G352" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="3">
+      <c r="H352" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10327,28 +10351,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="3">
+      <c r="B354" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="3">
+      <c r="C354" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="3">
+      <c r="D354" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="3">
+      <c r="E354" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="3">
+      <c r="F354" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="3">
+      <c r="G354" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="3">
+      <c r="H354" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="3">
+      <c r="I354" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10407,10 +10431,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="3" t="s">
+      <c r="J356" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10454,28 +10478,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="3">
+      <c r="A358" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="3">
+      <c r="B358" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="3">
+      <c r="C358" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="3">
+      <c r="E358" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="3">
+      <c r="F358" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="3">
+      <c r="G358" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="3">
+      <c r="H358" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10500,28 +10524,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="3">
+      <c r="B360" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="3">
+      <c r="C360" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="3">
+      <c r="D360" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="3">
+      <c r="E360" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="3">
+      <c r="F360" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="3">
+      <c r="G360" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="3">
+      <c r="H360" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="3">
+      <c r="I360" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10580,10 +10604,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="3" t="s">
+      <c r="J362" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10627,28 +10651,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="3">
+      <c r="A364" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="3">
+      <c r="B364" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="3">
+      <c r="C364" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="3">
+      <c r="E364" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="3">
+      <c r="F364" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="3">
+      <c r="G364" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="3">
+      <c r="H364" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10673,28 +10697,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="3">
+      <c r="B366" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="3">
+      <c r="C366" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="3">
+      <c r="D366" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="3">
+      <c r="E366" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="3">
+      <c r="F366" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="3">
+      <c r="G366" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="3">
+      <c r="H366" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="3">
+      <c r="I366" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10753,10 +10777,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="3" t="s">
+      <c r="J368" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10800,28 +10824,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="3">
+      <c r="A370" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="3">
+      <c r="B370" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="3">
+      <c r="C370" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="3">
+      <c r="E370" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="3">
+      <c r="F370" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="3">
+      <c r="G370" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="3">
+      <c r="H370" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10846,28 +10870,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="3">
+      <c r="B372" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="3">
+      <c r="C372" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="3">
+      <c r="D372" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="3">
+      <c r="E372" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="3">
+      <c r="F372" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="3">
+      <c r="G372" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="3">
+      <c r="H372" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="3">
+      <c r="I372" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10926,10 +10950,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="3" t="s">
+      <c r="J374" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10973,28 +10997,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="3">
+      <c r="A376" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="3">
+      <c r="B376" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="3">
+      <c r="C376" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="3">
+      <c r="E376" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="3">
+      <c r="F376" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="3">
+      <c r="G376" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="3">
+      <c r="H376" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11019,28 +11043,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="3">
+      <c r="B378" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="3">
+      <c r="C378" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="3">
+      <c r="D378" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="3">
+      <c r="E378" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="3">
+      <c r="F378" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="3">
+      <c r="G378" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="3">
+      <c r="H378" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="3">
+      <c r="I378" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11099,10 +11123,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="3" t="s">
+      <c r="J380" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11146,28 +11170,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="3">
+      <c r="A382" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="3">
+      <c r="B382" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="3">
+      <c r="C382" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="3">
+      <c r="E382" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="3">
+      <c r="F382" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="3">
+      <c r="G382" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="3">
+      <c r="H382" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11192,28 +11216,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="3">
+      <c r="B384" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="3">
+      <c r="C384" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="3">
+      <c r="D384" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="3">
+      <c r="E384" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="3">
+      <c r="F384" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="3">
+      <c r="G384" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="3">
+      <c r="H384" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="3">
+      <c r="I384" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11272,10 +11296,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="3" t="s">
+      <c r="J386" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11319,28 +11343,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="3">
+      <c r="A388" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="3">
+      <c r="B388" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="3">
+      <c r="C388" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="3">
+      <c r="E388" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="3">
+      <c r="F388" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="3">
+      <c r="G388" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="3">
+      <c r="H388" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11365,28 +11389,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="3">
+      <c r="B390" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="3">
+      <c r="C390" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="3">
+      <c r="D390" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="3">
+      <c r="E390" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="3">
+      <c r="F390" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="3">
+      <c r="G390" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="3">
+      <c r="H390" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="3">
+      <c r="I390" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11445,10 +11469,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="3" t="s">
+      <c r="J392" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11492,28 +11516,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="3">
+      <c r="A394" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="3">
+      <c r="B394" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="3">
+      <c r="C394" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="3">
+      <c r="E394" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="3">
+      <c r="F394" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="3">
+      <c r="G394" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="3">
+      <c r="H394" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11538,28 +11562,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="3">
+      <c r="B396" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="3">
+      <c r="C396" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="3">
+      <c r="D396" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="3">
+      <c r="E396" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="3">
+      <c r="F396" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="3">
+      <c r="G396" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="3">
+      <c r="H396" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="3">
+      <c r="I396" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11618,10 +11642,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="3" t="s">
+      <c r="J398" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11665,28 +11689,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="3">
+      <c r="A400" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="3">
+      <c r="B400" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="3">
+      <c r="C400" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="3">
+      <c r="E400" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="3">
+      <c r="F400" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="3">
+      <c r="G400" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="3">
+      <c r="H400" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11711,28 +11735,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="3">
+      <c r="B402" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="3">
+      <c r="C402" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="3">
+      <c r="D402" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="3">
+      <c r="E402" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="3">
+      <c r="F402" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="3">
+      <c r="G402" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="3">
+      <c r="H402" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="3">
+      <c r="I402" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11791,10 +11815,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="3" t="s">
+      <c r="J404" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11838,28 +11862,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="3">
+      <c r="A406" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="3">
+      <c r="B406" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="3">
+      <c r="C406" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="3">
+      <c r="E406" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="3">
+      <c r="F406" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="3">
+      <c r="G406" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="3">
+      <c r="H406" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11884,28 +11908,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="3">
+      <c r="B408" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="3">
+      <c r="C408" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="3">
+      <c r="D408" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="3">
+      <c r="E408" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="3">
+      <c r="F408" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="3">
+      <c r="G408" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="3">
+      <c r="H408" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="3">
+      <c r="I408" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11964,10 +11988,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="3" t="s">
+      <c r="J410" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12011,28 +12035,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="3">
+      <c r="A412" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="3">
+      <c r="B412" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="3">
+      <c r="C412" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="3">
+      <c r="E412" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="3">
+      <c r="F412" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="3">
+      <c r="G412" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="3">
+      <c r="H412" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12057,28 +12081,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="3">
+      <c r="B414" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="3">
+      <c r="C414" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="3">
+      <c r="D414" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="3">
+      <c r="E414" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="3">
+      <c r="F414" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="3">
+      <c r="G414" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="3">
+      <c r="H414" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="3">
+      <c r="I414" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12137,10 +12161,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="3" t="s">
+      <c r="J416" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
